--- a/Docs/validation sheet.xlsx
+++ b/Docs/validation sheet.xlsx
@@ -66,9 +66,6 @@
     <t>Regular Expression</t>
   </si>
   <si>
-    <t>[a-z0-9._%+-]+@[a-z0-9.-]+\.[a-z]{2,4}$</t>
-  </si>
-  <si>
     <t>images</t>
   </si>
   <si>
@@ -97,6 +94,9 @@
   </si>
   <si>
     <t>height/width &gt; 1.5</t>
+  </si>
+  <si>
+    <t>[A-Za-z0-9._%+-]+@[a-z0-9.-]+\.[a-z]{2,4}$</t>
   </si>
 </sst>
 </file>
@@ -486,7 +486,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -502,7 +502,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
@@ -520,7 +520,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -529,7 +529,7 @@
         <v>50</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
@@ -537,7 +537,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -546,7 +546,7 @@
         <v>50</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
@@ -554,7 +554,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
@@ -563,7 +563,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
@@ -571,7 +571,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1">
         <v>6</v>
@@ -580,7 +580,7 @@
         <v>12</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
@@ -588,7 +588,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="6">
         <v>6</v>
@@ -597,7 +597,7 @@
         <v>12</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F6" s="6"/>
     </row>
@@ -606,7 +606,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -615,7 +615,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
@@ -623,7 +623,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
@@ -632,7 +632,7 @@
         <v>50</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
@@ -640,7 +640,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>12</v>
@@ -649,7 +649,7 @@
         <v>12</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F9" s="6"/>
     </row>
@@ -658,7 +658,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>12</v>
@@ -667,7 +667,7 @@
         <v>12</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F10" s="6"/>
     </row>
@@ -676,7 +676,7 @@
         <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="1">
         <v>2</v>
@@ -685,7 +685,7 @@
         <v>25</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
@@ -693,7 +693,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
@@ -702,24 +702,24 @@
         <v>12</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/validation sheet.xlsx
+++ b/Docs/validation sheet.xlsx
@@ -486,7 +486,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -705,7 +705,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
@@ -718,7 +718,7 @@
       <c r="D13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="8" t="s">
         <v>25</v>
       </c>
     </row>

--- a/Docs/validation sheet.xlsx
+++ b/Docs/validation sheet.xlsx
@@ -107,7 +107,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -116,7 +116,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -124,7 +124,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3" tint="0.39997558519241921"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -486,18 +486,18 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="17.375" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="67.375" customWidth="1"/>
+    <col min="5" max="5" width="67.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -734,7 +734,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -746,7 +746,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
